--- a/Medical Devices Africa.xlsx
+++ b/Medical Devices Africa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="214">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -80,388 +80,391 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
+    <t xml:space="preserve">3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dem. Rep. Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eq. Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Rep.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dem. Rep. Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eq. Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
   </si>
   <si>
     <t xml:space="preserve">10.94</t>
@@ -666,9 +669,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -778,7 +782,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -809,6 +813,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -894,8 +906,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F61" activeCellId="0" sqref="F61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M49" activeCellId="0" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -903,11 +915,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="8.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="6.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="11.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="12" style="2" width="11.42"/>
   </cols>
@@ -1262,13 +1274,16 @@
       <c r="K10" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="L10" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>58</v>
@@ -1513,7 +1528,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>13</v>
@@ -2213,13 +2228,13 @@
         <v>146</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>13</v>
@@ -2245,7 +2260,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>54</v>
@@ -2272,7 +2287,7 @@
         <v>72</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>28</v>
@@ -2280,7 +2295,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>83</v>
@@ -2315,7 +2330,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>104</v>
@@ -2350,19 +2365,19 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>13</v>
@@ -2385,19 +2400,19 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>13</v>
@@ -2420,7 +2435,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>104</v>
@@ -2455,7 +2470,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>66</v>
@@ -2490,34 +2505,34 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B46" s="7" t="n">
         <v>7</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>114</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>34</v>
@@ -2525,7 +2540,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>104</v>
@@ -2560,16 +2575,16 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>85</v>
@@ -2587,24 +2602,25 @@
         <v>14</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>13</v>
@@ -2627,19 +2643,20 @@
       <c r="K49" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="M49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>51</v>
@@ -2665,16 +2682,16 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>68</v>
@@ -2700,16 +2717,16 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E52" s="7" t="n">
         <v>2</v>
@@ -2718,13 +2735,13 @@
         <v>13</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J52" s="7" t="n">
         <v>1</v>
@@ -2735,16 +2752,16 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>59</v>
@@ -2770,16 +2787,16 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>72</v>
@@ -2794,7 +2811,7 @@
         <v>72</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J54" s="7" t="s">
         <v>72</v>
@@ -2805,34 +2822,34 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K55" s="3" t="s">
         <v>44</v>
@@ -2870,7 +2887,7 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2884,7 +2901,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="7.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="8" width="7.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="10" width="7.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="2" width="11.42"/>
   </cols>
   <sheetData>
@@ -2893,25 +2910,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>10</v>
@@ -2930,7 +2947,7 @@
       <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2959,7 +2976,7 @@
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2988,7 +3005,7 @@
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3017,7 +3034,7 @@
       <c r="H5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3046,7 +3063,7 @@
       <c r="H6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3075,7 +3092,7 @@
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3104,7 +3121,7 @@
       <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3133,13 +3150,13 @@
       <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
@@ -3162,18 +3179,18 @@
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3202,7 +3219,7 @@
       <c r="H12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3210,7 +3227,7 @@
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3239,13 +3256,13 @@
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>72</v>
@@ -3268,7 +3285,7 @@
       <c r="H15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3276,7 +3293,7 @@
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3293,15 +3310,15 @@
       <c r="H17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I18" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3330,7 +3347,7 @@
       <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3359,7 +3376,7 @@
       <c r="H20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3388,7 +3405,7 @@
       <c r="H21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3417,7 +3434,7 @@
       <c r="H22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3440,7 +3457,7 @@
       <c r="H23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3469,7 +3486,7 @@
       <c r="H24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3498,7 +3515,7 @@
       <c r="H25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3527,7 +3544,7 @@
       <c r="H26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3535,7 +3552,7 @@
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3543,7 +3560,7 @@
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3572,7 +3589,7 @@
       <c r="H29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3601,7 +3618,7 @@
       <c r="H30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3630,7 +3647,7 @@
       <c r="H31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3650,7 +3667,7 @@
       <c r="G32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3679,7 +3696,7 @@
       <c r="H33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3705,7 +3722,7 @@
       <c r="H34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3714,7 +3731,7 @@
         <v>146</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
@@ -3734,13 +3751,13 @@
       <c r="H35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
@@ -3749,37 +3766,37 @@
         <v>72</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I38" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="I38" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>13</v>
@@ -3796,75 +3813,75 @@
       <c r="H39" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="I41" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I42" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I43" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>85</v>
@@ -3879,18 +3896,18 @@
         <v>14</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I44" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
@@ -3910,56 +3927,56 @@
       <c r="H45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>59</v>
@@ -3979,16 +3996,16 @@
       <c r="H48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>51</v>
@@ -4005,16 +4022,16 @@
       <c r="H49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>72</v>
@@ -4029,41 +4046,41 @@
         <v>72</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I51" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="I51" s="10" t="s">
         <v>44</v>
       </c>
     </row>
